--- a/TestPWA/wwwroot/checklist/BPS_M7.xlsx
+++ b/TestPWA/wwwroot/checklist/BPS_M7.xlsx
@@ -12,7 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Wartungscheckliste MUVE</d:t>
+    </d:r>
+  </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -1079,32 +1089,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0"/>
@@ -1112,20 +1122,20 @@
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -1134,22 +1144,28 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,16 +1175,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" descr="" name="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A3:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -1180,166 +1239,86 @@
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="G8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>19</v>
+      <c r="A10" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1347,16 +1326,16 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>21</v>
+      <c r="A11" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1364,16 +1343,16 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>22</v>
+      <c r="A12" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1381,7 +1360,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1389,8 +1368,8 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>24</v>
+      <c r="A13" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1398,7 +1377,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -1406,8 +1385,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>26</v>
+      <c r="A14" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1415,7 +1394,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -1423,8 +1402,8 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>28</v>
+      <c r="A15" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1432,7 +1411,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -1440,8 +1419,8 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>30</v>
+      <c r="A16" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1449,7 +1428,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -1457,8 +1436,8 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>31</v>
+      <c r="A17" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1466,7 +1445,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -1474,8 +1453,8 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>33</v>
+      <c r="A18" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1483,7 +1462,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -1491,8 +1470,8 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>35</v>
+      <c r="A19" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1500,7 +1479,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -1508,8 +1487,8 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>37</v>
+      <c r="A20" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1517,7 +1496,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -1525,265 +1504,265 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="21"/>
+      <c r="A21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="21"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="21"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="14" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="H31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="I31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11" t="s">
+      <c r="J31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11" t="s">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="21"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="21"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="18"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="27" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="24"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="14" t="s">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="I42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="29"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="J42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1791,7 +1770,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="11" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -1799,326 +1778,406 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44">
-      <c r="A44" s="18"/>
+      <c r="A44" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="A45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46">
-      <c r="A46" s="21"/>
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47">
-      <c r="A47" s="21"/>
+      <c r="A47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="17"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="30" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="29"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="29"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="29"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11" t="s">
-        <v>75</v>
+      <c r="E54" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="11" t="s">
-        <v>66</v>
+      <c r="I54" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="29"/>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
-        <v>76</v>
+      <c r="A55" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="19" t="s">
-        <v>77</v>
+      <c r="E55" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
-        <v>78</v>
+      <c r="A56" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="19" t="s">
-        <v>79</v>
+      <c r="E56" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
-        <v>80</v>
+      <c r="A57" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="19" t="s">
-        <v>81</v>
+      <c r="E57" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
-        <v>83</v>
+      <c r="A58" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="19" t="s">
-        <v>84</v>
+      <c r="E58" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
-        <v>85</v>
+      <c r="A59" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="19" t="s">
-        <v>86</v>
+      <c r="E59" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="29"/>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
-        <v>89</v>
+      <c r="A60" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="19" t="s">
-        <v>90</v>
+      <c r="E60" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="11" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="29"/>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
-        <v>91</v>
+      <c r="A61" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="29"/>
+      <c r="E61" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F61" s="13"/>
       <c r="G61" s="11" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="29"/>
     </row>
     <row r="62">
-      <c r="A62" s="18"/>
+      <c r="A62" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="29"/>
     </row>
     <row r="63">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="29"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="29"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="29"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="21"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="29"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="21"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="21"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
@@ -2130,53 +2189,38 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:K53"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>
@@ -2209,10 +2253,32 @@
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestPWA/wwwroot/checklist/BPS_M7.xlsx
+++ b/TestPWA/wwwroot/checklist/BPS_M7.xlsx
@@ -1089,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1120,9 +1120,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1156,9 +1153,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
@@ -1185,8 +1179,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1236,11 +1230,10 @@
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1258,8 +1251,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -1275,8 +1267,8 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
@@ -1299,10 +1291,9 @@
       <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12"/>
@@ -1313,11 +1304,10 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="13"/>
@@ -1328,13 +1318,12 @@
       <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="13"/>
@@ -1345,13 +1334,12 @@
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="13"/>
@@ -1362,13 +1350,12 @@
       <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="13"/>
@@ -1379,13 +1366,12 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13"/>
@@ -1396,13 +1382,12 @@
       <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="13"/>
@@ -1413,13 +1398,12 @@
       <c r="G15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="13"/>
@@ -1430,13 +1414,12 @@
       <c r="G16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="13"/>
@@ -1447,13 +1430,12 @@
       <c r="G17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="13"/>
@@ -1464,13 +1446,12 @@
       <c r="G18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="13"/>
@@ -1481,13 +1462,12 @@
       <c r="G19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="13"/>
@@ -1498,13 +1478,12 @@
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="13"/>
@@ -1515,13 +1494,12 @@
       <c r="G21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="13"/>
@@ -1532,13 +1510,12 @@
       <c r="G22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="13"/>
@@ -1549,13 +1526,12 @@
       <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="13"/>
@@ -1566,13 +1542,12 @@
       <c r="G24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="13"/>
@@ -1583,49 +1558,47 @@
       <c r="G25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21"/>
+      <c r="A28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="14" t="s">
         <v>6</v>
       </c>
@@ -1638,10 +1611,9 @@
       <c r="J31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="13"/>
@@ -1652,13 +1624,12 @@
       <c r="G33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="13"/>
@@ -1669,13 +1640,12 @@
       <c r="G34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="13"/>
@@ -1686,13 +1656,12 @@
       <c r="G35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="13"/>
@@ -1703,49 +1672,47 @@
       <c r="G36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21"/>
+      <c r="A39" s="20"/>
     </row>
     <row r="40">
-      <c r="A40" s="21"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="24"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="14" t="s">
         <v>6</v>
       </c>
@@ -1758,10 +1725,9 @@
       <c r="J42" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="29"/>
     </row>
     <row r="43">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="13"/>
@@ -1772,13 +1738,12 @@
       <c r="G43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="13"/>
@@ -1789,13 +1754,12 @@
       <c r="G44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="13"/>
@@ -1806,13 +1770,12 @@
       <c r="G45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="13"/>
@@ -1823,13 +1786,12 @@
       <c r="G46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="13"/>
@@ -1840,13 +1802,12 @@
       <c r="G47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="13"/>
@@ -1857,27 +1818,26 @@
       <c r="G48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="21"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="21"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="12"/>
@@ -1888,17 +1848,16 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="17"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -1909,16 +1868,15 @@
         <v>63</v>
       </c>
       <c r="J54" s="13"/>
-      <c r="K54" s="29"/>
     </row>
     <row r="55">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F55" s="13"/>
@@ -1930,16 +1888,15 @@
         <v>67</v>
       </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="29"/>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="13"/>
@@ -1951,16 +1908,15 @@
         <v>67</v>
       </c>
       <c r="J56" s="13"/>
-      <c r="K56" s="29"/>
     </row>
     <row r="57">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F57" s="13"/>
@@ -1972,16 +1928,15 @@
         <v>67</v>
       </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="29"/>
     </row>
     <row r="58">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="13"/>
@@ -1993,16 +1948,15 @@
         <v>67</v>
       </c>
       <c r="J58" s="13"/>
-      <c r="K58" s="29"/>
     </row>
     <row r="59">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="13"/>
@@ -2014,16 +1968,15 @@
         <v>67</v>
       </c>
       <c r="J59" s="13"/>
-      <c r="K59" s="29"/>
     </row>
     <row r="60">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="13"/>
@@ -2035,16 +1988,15 @@
         <v>67</v>
       </c>
       <c r="J60" s="13"/>
-      <c r="K60" s="29"/>
     </row>
     <row r="61">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F61" s="13"/>
@@ -2056,16 +2008,15 @@
         <v>67</v>
       </c>
       <c r="J61" s="13"/>
-      <c r="K61" s="29"/>
     </row>
     <row r="62">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F62" s="13"/>
@@ -2077,16 +2028,15 @@
         <v>83</v>
       </c>
       <c r="J62" s="13"/>
-      <c r="K62" s="29"/>
     </row>
     <row r="63">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="13"/>
@@ -2098,16 +2048,15 @@
         <v>83</v>
       </c>
       <c r="J63" s="13"/>
-      <c r="K63" s="29"/>
     </row>
     <row r="64">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F64" s="13"/>
@@ -2119,16 +2068,15 @@
         <v>89</v>
       </c>
       <c r="J64" s="13"/>
-      <c r="K64" s="29"/>
     </row>
     <row r="65">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F65" s="13"/>
@@ -2140,16 +2088,15 @@
         <v>89</v>
       </c>
       <c r="J65" s="13"/>
-      <c r="K65" s="29"/>
     </row>
     <row r="66">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="13"/>
       <c r="G66" s="11" t="s">
         <v>88</v>
@@ -2159,25 +2106,24 @@
         <v>93</v>
       </c>
       <c r="J66" s="13"/>
-      <c r="K66" s="29"/>
     </row>
     <row r="67">
-      <c r="A67" s="21"/>
+      <c r="A67" s="20"/>
     </row>
     <row r="68">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21"/>
+      <c r="A69" s="20"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D6:J6"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
@@ -2194,21 +2140,21 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
@@ -2216,11 +2162,11 @@
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>

--- a/TestPWA/wwwroot/checklist/BPS_M7.xlsx
+++ b/TestPWA/wwwroot/checklist/BPS_M7.xlsx
@@ -29,6 +29,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Datum:</d:t>
     </d:r>
   </si>
@@ -38,6 +46,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bargeldgewerk:     BPS M7</d:t>
     </d:r>
   </si>
@@ -47,6 +63,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungsfirma:</d:t>
     </d:r>
   </si>
@@ -56,6 +80,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Servicetechniker:</d:t>
     </d:r>
   </si>
@@ -65,6 +97,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Achtung: Arbeiten nur ausführen, wenn keine Werte vorhanden sind.</d:t>
     </d:r>
   </si>
@@ -74,6 +114,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungshandbuch</d:t>
     </d:r>
   </si>
@@ -83,6 +131,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">in Ordnung</d:t>
     </d:r>
   </si>
@@ -92,6 +148,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">nicht in Ordnung</d:t>
     </d:r>
   </si>
@@ -101,6 +165,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">erledigt</d:t>
     </d:r>
   </si>
@@ -108,6 +180,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -120,6 +199,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen im Eingabemodul tauschen</d:t>
     </d:r>
   </si>
@@ -129,6 +216,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">73</d:t>
     </d:r>
   </si>
@@ -138,6 +233,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen im OM, DM und SM prüfen</d:t>
     </d:r>
   </si>
@@ -147,6 +250,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Doppelspurbanderolierer reinigen und justieren</d:t>
     </d:r>
   </si>
@@ -156,6 +267,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">79</d:t>
     </d:r>
   </si>
@@ -165,6 +284,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Flach- Zahnriemen Hauptantrieb prüfen</d:t>
     </d:r>
   </si>
@@ -174,6 +301,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">87</d:t>
     </d:r>
   </si>
@@ -183,6 +318,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rotor und Vereinzlerwalze reinigen</d:t>
     </d:r>
   </si>
@@ -192,6 +335,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">x</d:t>
     </d:r>
   </si>
@@ -201,6 +352,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rotor und Stator der Rückhaltewalze reinigen</d:t>
     </d:r>
   </si>
@@ -210,6 +369,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">68</d:t>
     </d:r>
   </si>
@@ -219,6 +386,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">BN-Eingabebereich prüfen</d:t>
     </d:r>
   </si>
@@ -228,6 +403,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Lichtschranken Schiebetürenüberwachung reinigen</d:t>
     </d:r>
   </si>
@@ -237,6 +420,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">61</d:t>
     </d:r>
   </si>
@@ -246,6 +437,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Banknotenweichen prüfen</d:t>
     </d:r>
   </si>
@@ -255,6 +454,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">89</d:t>
     </d:r>
   </si>
@@ -264,6 +471,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bündler prüfen</d:t>
     </d:r>
   </si>
@@ -273,6 +488,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">90</d:t>
     </d:r>
   </si>
@@ -282,6 +505,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Shredder prüfen</d:t>
     </d:r>
   </si>
@@ -291,6 +522,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">140</d:t>
     </d:r>
   </si>
@@ -300,6 +539,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Leitbleche und Weichenflügel im Shredderbereich prüfen</d:t>
     </d:r>
   </si>
@@ -309,6 +556,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Filtermatten der Lüfter reinigen</d:t>
     </d:r>
   </si>
@@ -318,6 +573,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">99</d:t>
     </d:r>
   </si>
@@ -327,6 +590,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Warnzeichen prüfen</d:t>
     </d:r>
   </si>
@@ -336,6 +607,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">94</d:t>
     </d:r>
   </si>
@@ -345,6 +624,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Staplerscheiben reinigen</d:t>
     </d:r>
   </si>
@@ -354,6 +641,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">66</d:t>
     </d:r>
   </si>
@@ -363,6 +658,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Flachriemen reinigen</d:t>
     </d:r>
   </si>
@@ -372,6 +675,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bemerkungen:</d:t>
     </d:r>
   </si>
@@ -379,6 +690,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -391,6 +709,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Shredder - Sicherheitsbereich prüfen</d:t>
     </d:r>
   </si>
@@ -400,6 +726,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">148</d:t>
     </d:r>
   </si>
@@ -409,6 +743,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Luftleitplatte und Reflextaster prüfen</d:t>
     </d:r>
   </si>
@@ -418,6 +760,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">103</d:t>
     </d:r>
   </si>
@@ -427,6 +777,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Unterdrucksystem prüfen</d:t>
     </d:r>
   </si>
@@ -436,6 +794,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Lüfter prüfen</d:t>
     </d:r>
   </si>
@@ -445,6 +811,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">102</d:t>
     </d:r>
   </si>
@@ -452,6 +826,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -464,6 +845,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen auf Gleichlauf überprüfen</d:t>
     </d:r>
   </si>
@@ -473,6 +862,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Transport- und Antriebsrollen prüfen</d:t>
     </d:r>
   </si>
@@ -482,6 +879,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">109</d:t>
     </d:r>
   </si>
@@ -491,6 +896,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Banderolendruckköpfe und Farbbänder prüfen</d:t>
     </d:r>
   </si>
@@ -500,6 +913,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">112</d:t>
     </d:r>
   </si>
@@ -509,6 +930,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Banderolierungsvorgang prüfen</d:t>
     </d:r>
   </si>
@@ -518,6 +947,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Shredder- Saugluftüberwachung prüfen</d:t>
     </d:r>
   </si>
@@ -527,6 +964,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">150</d:t>
     </d:r>
   </si>
@@ -536,6 +981,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Sicherheitseinrichtung prüfen</d:t>
     </d:r>
   </si>
@@ -545,6 +998,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">106</d:t>
     </d:r>
   </si>
@@ -552,6 +1013,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -564,6 +1032,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Artikel</d:t>
     </d:r>
   </si>
@@ -573,6 +1049,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Artikelnummer</d:t>
     </d:r>
   </si>
@@ -582,6 +1066,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Anzahl</d:t>
     </d:r>
   </si>
@@ -591,6 +1083,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Lagerort</d:t>
     </d:r>
   </si>
@@ -600,6 +1100,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 3467 (M415)</d:t>
     </d:r>
   </si>
@@ -609,6 +1117,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">262 407 001</d:t>
     </d:r>
   </si>
@@ -618,6 +1134,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">3</d:t>
     </d:r>
   </si>
@@ -627,6 +1151,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">2I</d:t>
     </d:r>
   </si>
@@ -636,6 +1168,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 2409 (M414)</d:t>
     </d:r>
   </si>
@@ -645,6 +1185,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">263 536 001</d:t>
     </d:r>
   </si>
@@ -654,6 +1202,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 2135 (M402)</d:t>
     </d:r>
   </si>
@@ -663,6 +1219,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">262 507 001</d:t>
     </d:r>
   </si>
@@ -672,6 +1236,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 1510 (M306)</d:t>
     </d:r>
   </si>
@@ -681,6 +1253,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">117 363 001</d:t>
     </d:r>
   </si>
@@ -690,6 +1270,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 990 (M376)</d:t>
     </d:r>
   </si>
@@ -699,6 +1287,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">268 909 001</d:t>
     </d:r>
   </si>
@@ -708,6 +1304,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">2</d:t>
     </d:r>
   </si>
@@ -717,6 +1321,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 297 (M281)</d:t>
     </d:r>
   </si>
@@ -726,6 +1338,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">244 040 001</d:t>
     </d:r>
   </si>
@@ -735,6 +1355,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Rundriemen L = 248 (M280)</d:t>
     </d:r>
   </si>
@@ -744,6 +1372,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">156 537 011</d:t>
     </d:r>
   </si>
@@ -753,6 +1389,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Klemmrollen</d:t>
     </d:r>
   </si>
@@ -762,6 +1406,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">272 900 011</d:t>
     </d:r>
   </si>
@@ -771,6 +1423,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">1A</d:t>
     </d:r>
   </si>
@@ -780,6 +1440,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Kugellager 6001-2RSH</d:t>
     </d:r>
   </si>
@@ -789,6 +1457,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">188 512 000</d:t>
     </d:r>
   </si>
@@ -798,6 +1474,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Einlaufblech (M308)</d:t>
     </d:r>
   </si>
@@ -807,6 +1491,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">155 487 021</d:t>
     </d:r>
   </si>
@@ -816,6 +1508,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">1</d:t>
     </d:r>
   </si>
@@ -825,6 +1525,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">1B</d:t>
     </d:r>
   </si>
@@ -834,6 +1542,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Schieber</d:t>
     </d:r>
   </si>
@@ -843,6 +1559,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">212 408 021</d:t>
     </d:r>
   </si>
@@ -852,6 +1576,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Kugellager (6007 LB) Rotor</d:t>
     </d:r>
   </si>
@@ -861,6 +1593,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Werkstatt</d:t>
     </d:r>
   </si>
@@ -868,6 +1608,14 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Zusätzliche Arbeiten:</d:t>
